--- a/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mwang002\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD7F3E2-7A94-468C-936B-C73CE7951942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43AD3F-982F-42F7-9803-AA21BA60B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
+    <workbookView xWindow="11520" yWindow="768" windowWidth="11280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Month 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Title/Author</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Methodology</t>
   </si>
   <si>
-    <t>Impact of Work</t>
-  </si>
-  <si>
     <t>Relevance of literature</t>
   </si>
   <si>
@@ -94,6 +91,66 @@
   </si>
   <si>
     <t>This work provides an overview of FOG computing. Further, it indicates clearly what other researchers have surveyed in the area of FOG computing over the years leading to 2018. These are relevant research papers to review for further knowledge on the concept.</t>
+  </si>
+  <si>
+    <t>Xin Fang, MengMeng Cai, Anthony Florita</t>
+  </si>
+  <si>
+    <t>Cyber physical event emulation-based transmission and distribution co-simulation for situational awareness of grid anomalies</t>
+  </si>
+  <si>
+    <t>Energy management of transmission and distribution networks is more challenging with the accelerated adoption of distributed energy resources (DERs)  on the electric grid. (a) Cyber vulnerability needs to be better understood to maintain the system reliability. (b) RG - need to improve the system situational awareness and grid anomalies (SAGA) detection</t>
+  </si>
+  <si>
+    <t>Future work - Emulate the communication latency and potential cybersecurity issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper reviews the co-simulation software developed using Python to test different cyber physical events on the SAGA framework. Different false injections and errors are introduced at different points in the closed loop layers lying on the OpenDSS layer. </t>
+  </si>
+  <si>
+    <t>The results of the co-simulation are based on the case study of choice. This paper reviews an 18-bus T&amp;D system which is simulated and tested against selected cyber physical events and the performance of the system SAGA is evaluated. The results are disseminated using a data visualization platform developed as part of the co-simulation software to demonstrate real-time reaction of the system to different anomalies introduced as events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper seeks to introduce anomalies or cyber physical events that are anticipated in the T&amp;D systems. The co-simulation software developed by NREL should help organizations prepare for certain events by developing mitigation tools or restructuring their networks and upgrading their communication layer protocols and tools. </t>
+  </si>
+  <si>
+    <t>Mohammed Alrowaily, Zhuo Lu</t>
+  </si>
+  <si>
+    <t>Secure edge computing in IoT systems: Review and case studies</t>
+  </si>
+  <si>
+    <t>IoT and big data analytics are growing at a faster pace than ever before. It is important to develop architectures for efficient and secure network system designs that focus on computing closer to the edge nodes and improved performance metrics on the network - communication layer as well as addressing the security and privacy concerns of IoT systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper surveys two cases studies: Smart parking and content delivery networks. The paper reviews the current IoT to cloud architecture and highlights how the introduction of edge computing, and an extension of it, fog computing using fog nodes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper reviews the use of edge computing and fog nodes in terms of architectural optimization. In a sense that the introduction of edge computing ensures computing and storage is done closer to the edge nodes as opposed to the traditional IoT-cloud architecture. This to an extent help resolve the issues in security and privacy in that the data collected from user edge nodes is processed closer or in the edge nodes reducing any form of interference or unauthorized access. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper is relevant in that it sheds light on current systems using the edge computing architecture and how they benefit from the architecture. However, the technology is still in its early stages hence it is still under research. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>I would want to know how edge computing is being applied alongside fog nodes &amp; how can we integrate SDN in the network and what would be the advantage of doing this? On the other hand, what would be the drawback of introducing SDN?</t>
+    </r>
+  </si>
+  <si>
+    <t>Impact of Work (Or limitations)</t>
+  </si>
+  <si>
+    <t>Chenine, M, J Ullberg, I Nordstrom, Y Wu, G N Ericsson</t>
+  </si>
+  <si>
+    <t>A framework for wide area monitoring and control systems interoperability and cybersecurity analysis</t>
   </si>
 </sst>
 </file>
@@ -464,18 +521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="22.44140625" style="1"/>
+    <col min="1" max="5" width="22.44140625" style="1"/>
+    <col min="6" max="6" width="26.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="22.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -492,53 +551,104 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mwang002\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43AD3F-982F-42F7-9803-AA21BA60B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52691A55-9EDA-487E-9CD5-295CF6B59354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="768" windowWidth="11280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Month 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Title/Author</t>
   </si>
@@ -151,6 +151,45 @@
   </si>
   <si>
     <t>A framework for wide area monitoring and control systems interoperability and cybersecurity analysis</t>
+  </si>
+  <si>
+    <t>Anam Sajid, Haider Abbas, Kashif saleem</t>
+  </si>
+  <si>
+    <t>Cloud-assisted IoT based SCADA systems security: A review of the state of the art and future challenges</t>
+  </si>
+  <si>
+    <t>The IoT-cloud based SCADA ICS faces vulnerabilities as it is integrated with underlying legacy systems. Some of these vulnerabilities are as a result of the weak (insecure) communication protocols - Modbus, IEC 61850, and CI systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey paper explores the different kinds of vulnerabilities faced since the adoption of the networked and the IoT cloud based SCADA system approaches. The paper reviews the different attacks that have hit several organizations siting CIA for security risk analysis. </t>
+  </si>
+  <si>
+    <t>SCADA systems are susceptible to vulnerabilities during communication and at the CI layer as well since most Industrial applications use commercial cloud services. This survey equally presents case scenarios of different threats: eavesdropping, man-in-the-middle attacks, data corruption owing to lack of proper security controls</t>
+  </si>
+  <si>
+    <r>
+      <t>This paper is quite important as it addresses the differen threats. It reviews the chronological advancement in the design and implementation of SCADA systems. The paper discusses the vulnerabilities of communication layer (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>overview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and proposes the use of multiple layers of security as well as redundancy as a preventative measure. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -521,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -651,6 +690,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52691A55-9EDA-487E-9CD5-295CF6B59354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0CE878-0D21-42D2-A464-33DC448C2EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Title/Author</t>
   </si>
@@ -190,6 +190,99 @@
       </rPr>
       <t xml:space="preserve">) and proposes the use of multiple layers of security as well as redundancy as a preventative measure. </t>
     </r>
+  </si>
+  <si>
+    <t>Ravishankar Borgaonkar, Martin Gilje Jaatun</t>
+  </si>
+  <si>
+    <t>5G as an enabler for secure IoT in the smart grid</t>
+  </si>
+  <si>
+    <t>The use of IoT devices in smart grid seeks to improve reliability of the power system, enhanced functions of SCADA, improved monitoring and management of operational power grid assets, and advanced metering infrastructure. The security of IoT devices themselves is a challenge due to the trade-off between device cost and secure communication requirements.</t>
+  </si>
+  <si>
+    <t>The paper describes smart grid architecture and the application of 5G in the communication between the IoT devices and the smart grid control center. It takes into consideration the DERs. There is need to perform real-time monitoring of smart grid operations via exchanging data from IoT devices.</t>
+  </si>
+  <si>
+    <t>Using 5G, the system is able to provide a level of security in the communication layer but does not guarantee end-to-end smart grid architecture security. The 5G network introduces SBA where SDN, network virtualization and software defined networks are introduced for different smart grid cases.</t>
+  </si>
+  <si>
+    <t>Shahida Begum, Reshma Banu, Ali ahmed, Parameshachari B D</t>
+  </si>
+  <si>
+    <t>A comparative study on improving the performance of solar power plants through IoT and predictive data analytics</t>
+  </si>
+  <si>
+    <t>Solar ecosystem maintenance relies on legacy SCADA. The operations and maintenance of the solar systems can be improved using IoT-cloud based services (solutions) to ensure optimal maintenance and proactive predictions of anomalies in the grid.</t>
+  </si>
+  <si>
+    <t>The paper uses case studies in the solar energy system. The case study is based in India. The use of IoT sensors and actuators, that rely on ARM processors to collect data, the use of advanced communication protocols such as MQTT, M2M, and TCP/IP for high speed, low latency, and reliable communication, as well as Google cloud engine for predictive analytics</t>
+  </si>
+  <si>
+    <t>The work used the MapReduce algorithm to perform data analytics on the Google cloud engine BigTable that accommodates very large data sets. The work presents a case of increased efficiency in the solar systems operation using predictive analytics based on the data acquired by IoT sensors. The architecture allows for bidirectional communication to actuate the solar system for improved stability and control (preventative maintenance by DSOs)</t>
+  </si>
+  <si>
+    <t>The renewable energy sector comprises of wind, solar, water, and hydrogen gas options (to name but a few). However, solar energy is one of the DERs that can be injected into the grid at HV, MV or LV sections. To ensure stability, there is need for constant monitoring by the DSO hence the use of distributed IoT sensors for the performance prediction of solar energy.</t>
+  </si>
+  <si>
+    <t>Syed Ghazanfar Abbas, Fabiha Hashmat, Ghalib A. Shah</t>
+  </si>
+  <si>
+    <t>A multi-layer industrial-IoT attack taxonomy- Layers, dimensions, techniques, and application</t>
+  </si>
+  <si>
+    <t>The IIoT is a specialized subset of IoT which involves the interconnection of industrial devices with ubiquitous control and intelligent processing services to improve the industrial system's productivity and operational capability. The merger of these technologies causes high degree of cross-linking and decentralization which ultimately increases the complexity of IIoT systems and introduces new vulnerabilities.  The advancement of IIoT leads to a multitude of cyber security risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper develops IIoT multilayer attack taxonomy which is validated on a real world use-case of an IIoT attack incidence. The tally of attacks in IIoT cause excruciating damage to industrial production system and revenue which continues to increase exponentially provoking high degree of cross linking and resource constrained nature of IoT devices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper conducts an indepth review of the threats that occur on SCADA systems and IIoT systems. The work develops a taxonomy of the threat attacks for IIoT in the energy networks. Use case: German steel factory. </t>
+  </si>
+  <si>
+    <t>Xuemei Xiang, Jinsong Gui, Neal N Xiong</t>
+  </si>
+  <si>
+    <t>An integral data gathering framework for supervisory control and data acquisition systems in green IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live data gathering from numerous sub-connected SCADA networks to make unified decisions based on the acquired data is a pivot problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An integral data gathering framework is proposed to prolong network lifetime by using sink rotating and unmanned aerial vehicles path planning. Seeks to perform data collection and balance the energy consumption of the network by slecting the node with the elast energy consumption as the sink node. </t>
+  </si>
+  <si>
+    <t>David S. Linthicum</t>
+  </si>
+  <si>
+    <t>Approaching cloud computing performance</t>
+  </si>
+  <si>
+    <t>Performance in cloud computing environment (IaaS and PaaS). Some of the biggest barriers to moving analytics from on-premise services to cloud service are security concerns (50%), immature and low performing available technology (49%) regulatory compliance (35%) and lack of trust (32%). It is observed that as more enterprises leverage public cloud platforms, their systems data volume grow and this presents specific performance bottlenecks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerging case studies: (a) Most commercial cloud service providers have taken different measures to tackle performance and scaling. (b) Aims at reducing latency by deploying distributed DCs. (c)  Conduct surveys on how systems perform when they migrate their services to the cloud based on the configuration choices provided by the commercial vendor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance issues such as latency problems can only be resolved with a complete public cloud restoration project. Some users fail to leverage cloud native features while others are unwilling to make applications cloud-native. Network latency is another bottleneck. The distance between the IoT edge network and the cloud center determines the amount of latency one is bound to experience.  Poor design - If teh system is not localized to leverage the performance features of the host cloud, you are not getting the best performance bang for your cloud buck. </t>
+  </si>
+  <si>
+    <t>Cloud based performance metrics</t>
+  </si>
+  <si>
+    <t>While designing your system, consider the public cloud-hosted performance that deals with resource provisioning and deprovisioning, platform optimization etc.  This article sheds light on the poorly designed legacy applications which were operating quite alright in on-premise server single tenant platforms but are outed on cloud applications for being poorly designed.  The paper proposes that cloud engineers alter the approach at to when, how and the size fo the chunks of resources provisioned to support the system processing.</t>
+  </si>
+  <si>
+    <t>This article is important in my project as it discusses the need to consider the best approach to cloud application design. Remediating the existing on-premises application designs into cloud-native versions to consider a better holistic design. The article provides a guide in creating a performance plan that will guide my work in the IoT cloud SCADA performance evaluation for offshore wind power</t>
+  </si>
+  <si>
+    <t>Mazin Yousif</t>
+  </si>
+  <si>
+    <t>Cloud computing reliability - Failure is an option</t>
+  </si>
+  <si>
+    <t>Cloud reliability is a measure of probability that a cloud delivers the services as intended.</t>
   </si>
 </sst>
 </file>
@@ -560,10 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -710,6 +804,111 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="224.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="290.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="330" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
